--- a/Processing_Tools/Dataset/Hotline Wiki 20230620.xlsx
+++ b/Processing_Tools/Dataset/Hotline Wiki 20230620.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI_CTS\Llama2\Processing_Tools\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB42F06-0A30-477C-BB59-8819CD702FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5CE732-79F1-49D0-8F36-832FE5B5A829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32715" yWindow="6585" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hotline wiki" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1220,7 +1219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1242,6 +1241,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,7 +1279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1328,6 +1333,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1618,9 +1626,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,7 +1674,7 @@
       <c r="C2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="19" t="s">
         <v>66</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1710,7 +1718,7 @@
       <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="19" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1736,7 +1744,7 @@
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1757,7 +1765,7 @@
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="1"/>
@@ -1879,7 +1887,7 @@
       <c r="B12" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="19" t="s">
         <v>287</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2018,7 +2026,7 @@
         <v>63012875</v>
       </c>
       <c r="B19" s="16"/>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="19" t="s">
         <v>287</v>
       </c>
       <c r="D19" s="1" t="s">

--- a/Processing_Tools/Dataset/Hotline Wiki 20230620.xlsx
+++ b/Processing_Tools/Dataset/Hotline Wiki 20230620.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI_CTS\Llama2\Processing_Tools\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5CE732-79F1-49D0-8F36-832FE5B5A829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521959B8-C50A-4914-88F4-9859E362D715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32715" yWindow="6585" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62280" yWindow="2790" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hotline wiki" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="291">
   <si>
     <t>Ticket</t>
   </si>
@@ -1189,6 +1189,9 @@
   <si>
     <t>Reliability
 post-processing</t>
+  </si>
+  <si>
+    <t>63040513</t>
   </si>
 </sst>
 </file>
@@ -1626,9 +1629,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,10 +1700,10 @@
       <c r="C3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="19" t="s">
         <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1762,7 +1765,7 @@
       <c r="C6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="19" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="19" t="s">
@@ -1797,8 +1800,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>63040513</v>
+      <c r="A8" s="14" t="s">
+        <v>290</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="17" t="s">
@@ -2308,10 +2311,10 @@
       <c r="C34" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="19" t="s">
         <v>99</v>
       </c>
       <c r="F34" s="1"/>
